--- a/112-1/ELECTRICAL ENGINEERING FUNDAMENTALS I/Lab/Lab 9/Lab 9.xlsx
+++ b/112-1/ELECTRICAL ENGINEERING FUNDAMENTALS I/Lab/Lab 9/Lab 9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\ELECTRICAL ENGINEERING FUNDAMENTALS I\Lab\Lab 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FEE0EA-855D-4540-AE20-9C72BE0CE83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4EA4B6-4520-4C0A-846C-543597B12CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Experiment 9.a Forward Bias Measurement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forward BiasV)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reverse BiasV)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Reverse Current(</t>
     </r>
@@ -103,6 +95,14 @@
       </rPr>
       <t>A)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Bias(V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Bias(V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,20 +454,20 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.640625" customWidth="1"/>
-    <col min="2" max="9" width="10.640625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.2109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,9 +480,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -509,9 +509,9 @@
         <v>0.62009999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -538,9 +538,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -551,9 +551,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -577,9 +577,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.3</v>
